--- a/hebrewOutputs/hebrewComparison_5.xlsx
+++ b/hebrewOutputs/hebrewComparison_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="155">
   <si>
     <t>Sentence</t>
   </si>
@@ -115,129 +115,129 @@
     <t>bc</t>
   </si>
   <si>
+    <t xml:space="preserve">אה </t>
+  </si>
+  <si>
+    <t>אה לפני שאני אתחיל לספר לך בואי תגידי לי קצת מה את יודעת על המצב של יואב</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ספרי לי למה הגעתם  </t>
+  </si>
+  <si>
+    <t>ומה את יודעת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא פשוט קצת לא הרגיש טוב </t>
+  </si>
+  <si>
+    <t>זה קורה לילדים</t>
+  </si>
+  <si>
+    <t>קצת כאב בטן קצת הקיא</t>
+  </si>
+  <si>
+    <t>קצת זה בסדר זה קורה</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>אני יודעת פשוט אתה יודע</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תנו את מה שצריך אנטיביוטקיה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני לא יודעת מה עושים במקרים האלה </t>
+  </si>
+  <si>
+    <t>וזהו ובוא, בוא, בוא נצא לדרכנו</t>
+  </si>
+  <si>
+    <t>יש לי פשוט יום ממש ארוך ואני גם ממהרת לעבודה ואני פה</t>
+  </si>
+  <si>
+    <t>אני מאמין לך</t>
+  </si>
+  <si>
+    <t>legit</t>
+  </si>
+  <si>
+    <t>אבל בואי נעשה קצת סדר בדברים</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>תראי יואב באמת כמו שאת אומרת הגיע עם חולשה והוא גם הקיא ועם כאבי בטן כמה ימים</t>
+  </si>
+  <si>
+    <t>אנחנו עשינו כמה בדיקות איך שהוא הגיע אלינו בדקנו חלק מהבדיקות שגרתיות בדיקת דם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אה וגילינו שיש לו סוכר מאוד גבוה בדם </t>
+  </si>
+  <si>
+    <t>לילד בגיל שלו בן חמש סוכר גבוהה בדם זה לא משהו שהוא כל כך נורמלי</t>
+  </si>
+  <si>
+    <t>ולכן בדקנו שוב עשינו עוד כמה בדיקות וראינו שהסוכר עומד ברמה גבוהה</t>
+  </si>
+  <si>
+    <t>את בסדר? מבינה?</t>
+  </si>
+  <si>
+    <t>?understand</t>
+  </si>
+  <si>
+    <t>מה זה אומר?</t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t>רמת הסוכר הגבוהה שלו אה מעידה בעצם על זה שהוא סובל ממחלה שנקראת סכרת נעורים</t>
+  </si>
+  <si>
+    <t>אני הסביר לך מזה אומר</t>
+  </si>
+  <si>
+    <t>סכרת נעורים מצב שבו קשה לגוף להתמודד עם רמות הסוכר הוא לא מפריש אינסולין שזה מה שאמור לקלוט את הסוכר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">בגילו </t>
+  </si>
+  <si>
+    <t>זה בסדר אני אסביר לך בדיוק את כל השלבים</t>
+  </si>
+  <si>
+    <t>את חושבת שצריך לקבל אנטיביוטיקה ויכול להיות שהיה לו איזשהו זיהום</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אז לא מדובר באיזשהו זיהום </t>
+  </si>
+  <si>
+    <t>הטיפול הוא לא טיפול אנטיביוטי הטיפול שהוא צריך זה בעצם תחליף לאינסולין</t>
+  </si>
+  <si>
+    <t>gives-thera</t>
+  </si>
+  <si>
+    <t>יש לו סכרת</t>
+  </si>
+  <si>
+    <t>יש לו סכרת, כן</t>
+  </si>
+  <si>
     <t>agree</t>
   </si>
   <si>
-    <t xml:space="preserve">אה </t>
-  </si>
-  <si>
-    <t>אה לפני שאני אתחיל לספר לך בואי תגידי לי קצת מה את יודעת על המצב של יואב</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ספרי לי למה הגעתם  </t>
-  </si>
-  <si>
-    <t>ומה את יודעת</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא פשוט קצת לא הרגיש טוב </t>
-  </si>
-  <si>
-    <t>זה קורה לילדים</t>
-  </si>
-  <si>
-    <t>קצת כאב בטן קצת הקיא</t>
-  </si>
-  <si>
-    <t>קצת זה בסדר זה קורה</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t>אני יודעת פשוט אתה יודע</t>
-  </si>
-  <si>
-    <t xml:space="preserve">תנו את מה שצריך אנטיביוטקיה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני לא יודעת מה עושים במקרים האלה </t>
-  </si>
-  <si>
-    <t>וזהו ובוא, בוא, בוא נצא לדרכנו</t>
-  </si>
-  <si>
-    <t>יש לי פשוט יום ממש ארוך ואני גם ממהרת לעבודה ואני פה</t>
-  </si>
-  <si>
-    <t>אני מאמין לך</t>
-  </si>
-  <si>
-    <t>legit</t>
-  </si>
-  <si>
-    <t>אבל בואי נעשה קצת סדר בדברים</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>תראי יואב באמת כמו שאת אומרת הגיע עם חולשה והוא גם הקיא ועם כאבי בטן כמה ימים</t>
-  </si>
-  <si>
-    <t>אנחנו עשינו כמה בדיקות איך שהוא הגיע אלינו בדקנו חלק מהבדיקות שגרתיות בדיקת דם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אה וגילינו שיש לו סוכר מאוד גבוה בדם </t>
-  </si>
-  <si>
-    <t>לילד בגיל שלו בן חמש סוכר גבוהה בדם זה לא משהו שהוא כל כך נורמלי</t>
-  </si>
-  <si>
-    <t>ולכן בדקנו שוב עשינו עוד כמה בדיקות וראינו שהסוכר עומד ברמה גבוהה</t>
-  </si>
-  <si>
-    <t>את בסדר? מבינה?</t>
-  </si>
-  <si>
-    <t>?understand</t>
-  </si>
-  <si>
-    <t>מה זה אומר?</t>
-  </si>
-  <si>
-    <t>?bid</t>
-  </si>
-  <si>
-    <t>רמת הסוכר הגבוהה שלו אה מעידה בעצם על זה שהוא סובל ממחלה שנקראת סכרת נעורים</t>
-  </si>
-  <si>
-    <t>אני הסביר לך מזה אומר</t>
-  </si>
-  <si>
-    <t>סכרת נעורים מצב שבו קשה לגוף להתמודד עם רמות הסוכר הוא לא מפריש אינסולין שזה מה שאמור לקלוט את הסוכר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בגילו </t>
-  </si>
-  <si>
-    <t>זה בסדר אני אסביר לך בדיוק את כל השלבים</t>
-  </si>
-  <si>
-    <t>את חושבת שצריך לקבל אנטיביוטיקה ויכול להיות שהיה לו איזשהו זיהום</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אז לא מדובר באיזשהו זיהום </t>
-  </si>
-  <si>
-    <t>הטיפול הוא לא טיפול אנטיביוטי הטיפול שהוא צריך זה בעצם תחליף לאינסולין</t>
-  </si>
-  <si>
-    <t>gives-thera</t>
-  </si>
-  <si>
-    <t>יש לו סכרת</t>
-  </si>
-  <si>
-    <t>יש לו סכרת, כן</t>
-  </si>
-  <si>
     <t xml:space="preserve">זה מחלה לא פשוטה אבל יש לה טיפול </t>
   </si>
   <si>
@@ -268,15 +268,15 @@
     <t>אה היא לא כזו נדירה באוכלוסייה ו</t>
   </si>
   <si>
+    <t>אבל מה זה גנטית זה אומר שהיה צריך לבוא ממני או מבעלי אבל אין לנו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">חלילה לא אף אחד מכם לא אשם </t>
+  </si>
+  <si>
     <t>r/o</t>
   </si>
   <si>
-    <t>אבל מה זה גנטית זה אומר שהיה צריך לבוא ממני או מבעלי אבל אין לנו</t>
-  </si>
-  <si>
-    <t xml:space="preserve">חלילה לא אף אחד מכם לא אשם </t>
-  </si>
-  <si>
     <t>אוקי זה מחלה שיכולה לעבור בתורשה</t>
   </si>
   <si>
@@ -308,9 +308,6 @@
   </si>
   <si>
     <t>gives-l/s</t>
-  </si>
-  <si>
-    <t>?reassure</t>
   </si>
   <si>
     <t xml:space="preserve">לא, לא שוב אני אומר חשוב לי שתביני </t>
@@ -1003,7 +1000,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1069,12 +1066,12 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1085,40 +1082,40 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -1140,7 +1137,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1151,18 +1148,18 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
@@ -1173,7 +1170,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1184,7 +1181,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -1195,51 +1192,51 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
         <v>49</v>
       </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1256,12 +1253,12 @@
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1272,7 +1269,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1283,7 +1280,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1294,7 +1291,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1305,29 +1302,29 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -1338,10 +1335,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -1349,7 +1346,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -1360,40 +1357,40 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" t="s">
         <v>67</v>
       </c>
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -1404,10 +1401,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
         <v>70</v>
-      </c>
-      <c r="B54" t="s">
-        <v>71</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -1415,10 +1412,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -1426,10 +1423,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
         <v>73</v>
-      </c>
-      <c r="B56" t="s">
-        <v>33</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
@@ -1451,7 +1448,7 @@
         <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -1465,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1473,10 +1470,10 @@
         <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1498,7 +1495,7 @@
         <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1531,12 +1528,12 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -1547,13 +1544,13 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1572,10 +1569,10 @@
         <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1583,10 +1580,10 @@
         <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1597,7 +1594,7 @@
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1608,7 +1605,7 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1619,7 +1616,7 @@
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1627,7 +1624,7 @@
         <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
@@ -1652,34 +1649,34 @@
         <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -1690,10 +1687,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -1701,7 +1698,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -1712,29 +1709,29 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -1745,7 +1742,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -1756,21 +1753,21 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
@@ -1778,10 +1775,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
@@ -1789,29 +1786,29 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
@@ -1822,10 +1819,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -1833,32 +1830,32 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" t="s">
         <v>116</v>
       </c>
-      <c r="B94" t="s">
-        <v>117</v>
-      </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -1866,10 +1863,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -1877,10 +1874,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97" t="s">
         <v>93</v>
@@ -1888,128 +1885,128 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" t="s">
         <v>123</v>
       </c>
-      <c r="B100" t="s">
-        <v>124</v>
-      </c>
       <c r="C100" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" t="s">
         <v>125</v>
       </c>
-      <c r="B101" t="s">
-        <v>126</v>
-      </c>
       <c r="C101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B104" t="s">
         <v>79</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -2020,7 +2017,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -2031,7 +2028,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B111" t="s">
         <v>32</v>
@@ -2042,7 +2039,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -2053,7 +2050,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -2064,7 +2061,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B114" t="s">
         <v>79</v>
@@ -2075,7 +2072,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -2086,7 +2083,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B116" t="s">
         <v>79</v>
@@ -2097,43 +2094,43 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B118" t="s">
         <v>32</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
@@ -2141,10 +2138,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -2152,32 +2149,32 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C122" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C123" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
@@ -2185,32 +2182,32 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B127" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C127" t="s">
         <v>32</v>
@@ -2218,10 +2215,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
@@ -2229,35 +2226,35 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B130" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C130" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131" t="s">
         <v>93</v>
       </c>
       <c r="C131" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
